--- a/Document/백종화/주간작업계획지.xlsx
+++ b/Document/백종화/주간작업계획지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\2023CapstoneProject\Document\백종화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981953F8-CFF5-4B43-A8FA-045BE99EAE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B016C163-5A90-46CC-8C11-68064E4F8EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
   </bookViews>
@@ -75,16 +75,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HP 동기화
 캐릭터 상태 동기화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Extra</t>
+    <r>
+      <t xml:space="preserve">X </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GameInstance를 통해
+캐릭터 스폰</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extra
+HP 동기화
+캐릭터 상태 동기화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +110,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +133,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -276,7 +305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,6 +344,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,7 +691,7 @@
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -704,22 +742,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="1"/>
       <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -746,7 +784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -778,7 +816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -810,7 +848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -840,7 +878,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>

--- a/Document/백종화/주간작업계획지.xlsx
+++ b/Document/백종화/주간작업계획지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\2023CapstoneProject\Document\백종화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B016C163-5A90-46CC-8C11-68064E4F8EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C674C7DD-7C92-458E-BBD5-CD4F8F369395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,27 @@
     <t>Extra
 HP 동기화
 캐릭터 상태 동기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 동기화 적용 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로비서버에서 매치메이킹 이후 게임서버로 이동
+캐릭터 애니메이션 동기화 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 중복 선택 방지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로비 작업 중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,7 +372,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -691,7 +712,7 @@
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -785,12 +806,24 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">

--- a/Document/백종화/주간작업계획지.xlsx
+++ b/Document/백종화/주간작업계획지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\2023CapstoneProject\Document\백종화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C674C7DD-7C92-458E-BBD5-CD4F8F369395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EBB3F8-54BB-4798-8AFE-B131A59D9BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
   </bookViews>
@@ -39,45 +39,45 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>타이머 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GameInstance를 통해
 캐릭터 스폰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>HP 동기화
 캐릭터 상태 동기화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -94,34 +94,64 @@
       <t>GameInstance를 통해
 캐릭터 스폰</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Extra
 HP 동기화
 캐릭터 상태 동기화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>체력 동기화 적용 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로비서버에서 매치메이킹 이후 게임서버로 이동
-캐릭터 애니메이션 동기화 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터 중복 선택 방지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>로비 작업 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로비서버에서 매치메이킹 이후 게임서버로 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>캐릭터 애니메이션 동기화 작업</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -131,13 +161,20 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -363,16 +400,19 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -712,7 +752,7 @@
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -810,19 +850,19 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>14</v>
+      <c r="E6" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -921,7 +961,7 @@
       <c r="H12" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Document/백종화/주간작업계획지.xlsx
+++ b/Document/백종화/주간작업계획지.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\2023CapstoneProject\Document\백종화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EBB3F8-54BB-4798-8AFE-B131A59D9BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F729833-AD34-4042-B9FD-5621A9F81A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -104,10 +104,6 @@
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 동기화 적용 확인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -150,6 +146,33 @@
         <scheme val="minor"/>
       </rPr>
       <t>캐릭터 애니메이션 동기화 작업</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 동기화 적용 및 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>체력 동기화 적용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 및 확인</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -363,7 +386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -414,6 +437,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,7 +778,7 @@
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -850,21 +876,23 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="5">

--- a/Document/백종화/주간작업계획지.xlsx
+++ b/Document/백종화/주간작업계획지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\2023CapstoneProject\Document\백종화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F729833-AD34-4042-B9FD-5621A9F81A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A634E3F2-9D6F-4736-9776-1E6A3DBC1358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -174,6 +174,10 @@
       </rPr>
       <t xml:space="preserve"> 및 확인</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 동기화 버그 수정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -386,7 +390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -435,10 +439,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -778,7 +788,7 @@
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -881,16 +891,16 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -918,8 +928,12 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>

--- a/Document/백종화/주간작업계획지.xlsx
+++ b/Document/백종화/주간작업계획지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\2023CapstoneProject\Document\백종화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A634E3F2-9D6F-4736-9776-1E6A3DBC1358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674DAEF3-B9F0-4462-A621-62CB35069316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
+    <workbookView xWindow="30855" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -180,6 +180,24 @@
     <t>체력 동기화 버그 수정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Client Mgr 추가
+리펙토링 진행
+리펙토링으로 체력 동기화 버그 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 애니메이션 동기화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성 class 동기화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -188,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +250,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -390,7 +416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -449,6 +475,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -934,11 +966,21 @@
       <c r="C8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
@@ -964,7 +1006,9 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1005,5 +1049,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/백종화/주간작업계획지.xlsx
+++ b/Document/백종화/주간작업계획지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\2023CapstoneProject\Document\백종화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674DAEF3-B9F0-4462-A621-62CB35069316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5238671D-1B27-4BC4-A64C-E6FB08014515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30855" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -198,6 +198,44 @@
     <t>무기 생성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">캐릭터 중복 선택 방지
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>캐릭터 애니메이션 동기화</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -206,7 +244,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +296,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -416,7 +470,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,6 +536,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,7 +877,7 @@
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -975,8 +1032,8 @@
       <c r="F8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
+      <c r="G8" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>21</v>

--- a/Document/백종화/주간작업계획지.xlsx
+++ b/Document/백종화/주간작업계획지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\2023CapstoneProject\Document\백종화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5238671D-1B27-4BC4-A64C-E6FB08014515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12B4F6B-A965-437D-B2AD-EB930273AECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30855" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,10 +195,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>무기 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -236,6 +232,43 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>생성 class 동기화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>무기 생성</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -244,7 +277,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +345,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -470,7 +519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,6 +588,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -877,7 +935,7 @@
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1033,9 +1091,9 @@
         <v>20</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1063,10 +1121,10 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1"/>
+      <c r="B10" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="25"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>

--- a/Document/백종화/주간작업계획지.xlsx
+++ b/Document/백종화/주간작업계획지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\2023CapstoneProject\Document\백종화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12B4F6B-A965-437D-B2AD-EB930273AECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68DBCBE-9335-496E-80D7-EC72254B5F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -267,6 +267,29 @@
       </rPr>
       <t>무기 생성</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동기화 버그
+수정용 클라 고치기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉴드 동기화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 동기화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 동기화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일 드랍
+아이템 생성
+킬 카운트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,9 +606,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -596,6 +616,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -935,7 +961,7 @@
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1078,7 +1104,7 @@
       <c r="B8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1087,13 +1113,13 @@
       <c r="E8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="22" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1121,14 +1147,22 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -1153,7 +1187,9 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:8" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>

--- a/Document/백종화/주간작업계획지.xlsx
+++ b/Document/백종화/주간작업계획지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\2023CapstoneProject\Document\백종화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68DBCBE-9335-496E-80D7-EC72254B5F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11338A63-BF0F-4A88-99EF-22EE276FBA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
+    <workbookView minimized="1" xWindow="2055" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -279,10 +279,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>근접 동기화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>원거리 동기화</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -290,6 +286,44 @@
     <t>타일 드랍
 아이템 생성
 킬 카운트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>근접 동기화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>동기화 버그
+수정용 클라 고치기</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -300,7 +334,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +418,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -542,7 +592,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,6 +673,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -960,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B86791F-E154-448F-809E-8FDE4F504A9A}">
   <dimension ref="B1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1151,17 +1204,17 @@
         <v>23</v>
       </c>
       <c r="C10" s="24"/>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="H10" s="6"/>
     </row>

--- a/Document/백종화/주간작업계획지.xlsx
+++ b/Document/백종화/주간작업계획지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\2023CapstoneProject\Document\백종화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11338A63-BF0F-4A88-99EF-22EE276FBA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D11394-8E14-4131-96BB-B24758C9789A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2055" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -324,6 +324,53 @@
       <t>동기화 버그
 수정용 클라 고치기</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO LIST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 적용
+충돌처리 피 깎기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험공부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>근/원거리 동기화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>클라 서버 공용파일 분할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+애니메이션 동기화</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라 서버 공용파일 분할</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -592,46 +639,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -641,40 +655,70 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1011,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B86791F-E154-448F-809E-8FDE4F504A9A}">
-  <dimension ref="B1:H12"/>
+  <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1022,32 +1066,32 @@
     <col min="2" max="8" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="5"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="13"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>27</v>
@@ -1061,31 +1105,37 @@
       <c r="G3" s="1">
         <v>30</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="14">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5"/>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="11">
+      <c r="K4" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="15">
         <v>45383</v>
       </c>
       <c r="C5" s="1">
@@ -1103,12 +1153,12 @@
       <c r="G5" s="1">
         <v>6</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="14">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="2:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1117,21 +1167,21 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="13">
         <v>8</v>
       </c>
       <c r="C7" s="1">
@@ -1149,35 +1199,35 @@
       <c r="G7" s="1">
         <v>13</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="14">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
+    <row r="8" spans="2:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="13">
         <v>15</v>
       </c>
       <c r="C9" s="1">
@@ -1195,31 +1245,31 @@
       <c r="G9" s="1">
         <v>20</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="14">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
+    <row r="10" spans="2:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="13">
         <v>22</v>
       </c>
       <c r="C11" s="1">
@@ -1237,18 +1287,128 @@
       <c r="G11" s="1">
         <v>27</v>
       </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="2:8" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="7" t="s">
+      <c r="H11" s="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="13">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1">
+        <v>30</v>
+      </c>
+      <c r="D13" s="20">
+        <v>45413</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="16"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="13">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
+        <v>11</v>
+      </c>
+      <c r="H15" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="13">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1">
+        <v>18</v>
+      </c>
+      <c r="H17" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Document/백종화/주간작업계획지.xlsx
+++ b/Document/백종화/주간작업계획지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\2023CapstoneProject\Document\백종화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D11394-8E14-4131-96BB-B24758C9789A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA5968F-332D-4124-899B-E5D00E6084E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
   </bookViews>
@@ -340,7 +340,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>근/원거리 동기화</t>
+    <t>클라 서버 공용파일 분할</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -365,12 +365,24 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-애니메이션 동기화</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>클라 서버 공용파일 분할</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>애니메이션 동기화</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 동기화
+근/원거리 동기화</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1057,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B86791F-E154-448F-809E-8FDE4F504A9A}">
   <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1296,7 +1308,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>33</v>
@@ -1308,7 +1320,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>27</v>

--- a/Document/백종화/주간작업계획지.xlsx
+++ b/Document/백종화/주간작업계획지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\2023CapstoneProject\Document\백종화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA5968F-332D-4124-899B-E5D00E6084E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C54ABAC-13AD-4DDB-AE53-E38964F15F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -383,6 +383,43 @@
   <si>
     <t>애니메이션 동기화
 근/원거리 동기화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>애니메이션 동기화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>근/원거리 동기화</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -393,7 +430,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +530,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -651,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,6 +775,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1069,17 +1119,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B86791F-E154-448F-809E-8FDE4F504A9A}">
   <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="8" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1102,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11">
       <c r="B3" s="13"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
@@ -1124,7 +1174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="74.25" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="1"/>
       <c r="D4" s="6" t="s">
@@ -1146,7 +1196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11">
       <c r="B5" s="15">
         <v>45383</v>
       </c>
@@ -1169,7 +1219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="74.25" customHeight="1">
       <c r="B6" s="13" t="s">
         <v>12</v>
       </c>
@@ -1192,7 +1242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11">
       <c r="B7" s="13">
         <v>8</v>
       </c>
@@ -1215,7 +1265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="74.25" customHeight="1">
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
@@ -1238,7 +1288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11">
       <c r="B9" s="13">
         <v>15</v>
       </c>
@@ -1261,7 +1311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="74.25" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
@@ -1280,7 +1330,7 @@
       </c>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11">
       <c r="B11" s="13">
         <v>22</v>
       </c>
@@ -1303,7 +1353,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" ht="74.25" customHeight="1">
       <c r="B12" s="26" t="s">
         <v>25</v>
       </c>
@@ -1319,14 +1369,14 @@
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="13">
         <v>29</v>
       </c>
@@ -1349,8 +1399,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
+    <row r="14" spans="2:11" ht="74.25" customHeight="1">
+      <c r="B14" s="27" t="s">
+        <v>27</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="6"/>
@@ -1358,7 +1410,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11">
       <c r="B15" s="13">
         <v>6</v>
       </c>
@@ -1381,7 +1433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="74.25" customHeight="1">
       <c r="B16" s="8"/>
       <c r="C16" s="19"/>
       <c r="D16" s="9"/>
@@ -1390,7 +1442,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8">
       <c r="B17" s="13">
         <v>13</v>
       </c>
@@ -1413,7 +1465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="74.25" customHeight="1" thickBot="1">
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>

--- a/Document/백종화/주간작업계획지.xlsx
+++ b/Document/백종화/주간작업계획지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\2023CapstoneProject\Document\백종화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C54ABAC-13AD-4DDB-AE53-E38964F15F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A72365-7BE7-48C1-B2AA-356F720F8BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -420,6 +420,18 @@
       </rPr>
       <t>근/원거리 동기화</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>킬 카운트 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스폰 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일 드랍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +549,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -695,7 +714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,6 +800,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1120,7 +1142,7 @@
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1404,9 +1426,15 @@
         <v>27</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="17"/>
+      <c r="D14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>38</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="18"/>
     </row>

--- a/Document/백종화/주간작업계획지.xlsx
+++ b/Document/백종화/주간작업계획지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\2023CapstoneProject\Document\백종화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A72365-7BE7-48C1-B2AA-356F720F8BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B910F2-9BB3-422C-8B6B-4AA6C7F86AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -431,7 +431,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>타일 드랍</t>
+    <t>맵 생성 동기화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 동기화 클래스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제트팩 Input 에러 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 착용 다양성
+건물 배치 재확인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -714,7 +727,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,6 +816,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1142,7 +1158,7 @@
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1433,10 +1449,14 @@
         <v>37</v>
       </c>
       <c r="F14" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="18"/>
+      <c r="H14" s="30" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="13">
@@ -1462,7 +1482,9 @@
       </c>
     </row>
     <row r="16" spans="2:11" ht="74.25" customHeight="1">
-      <c r="B16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="C16" s="19"/>
       <c r="D16" s="9"/>
       <c r="E16" s="7"/>

--- a/Document/백종화/주간작업계획지.xlsx
+++ b/Document/백종화/주간작업계획지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\2023CapstoneProject\Document\백종화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B910F2-9BB3-422C-8B6B-4AA6C7F86AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF6CD4F-8354-42CE-88ED-115C6B3ED5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
   </bookViews>
@@ -443,8 +443,29 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>무기 착용 다양성
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>무기 착용 다양성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 건물 배치 재확인</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1158,7 +1179,7 @@
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Document/백종화/주간작업계획지.xlsx
+++ b/Document/백종화/주간작업계획지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\2023CapstoneProject\Document\백종화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF6CD4F-8354-42CE-88ED-115C6B3ED5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9D5D9E-F58D-46A8-AD90-83251AAADA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -464,8 +464,24 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-건물 배치 재확인</t>
-    </r>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>건물 배치 재확인</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스폰 처리
+타일 드랍 처리 고안</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1179,7 +1195,7 @@
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1506,7 +1522,9 @@
       <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="29" t="s">
+        <v>42</v>
+      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="7"/>
       <c r="F16" s="1"/>

--- a/Document/백종화/주간작업계획지.xlsx
+++ b/Document/백종화/주간작업계획지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\2023CapstoneProject\Document\백종화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9D5D9E-F58D-46A8-AD90-83251AAADA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F000F17D-848F-4010-8E4B-65E7644E029C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF692A86-B153-4BDB-9985-46BE7C0D8990}"/>
   </bookViews>
@@ -1195,7 +1195,7 @@
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
